--- a/Train_scripts/Excels/IF score.xlsx
+++ b/Train_scripts/Excels/IF score.xlsx
@@ -674,19 +674,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -757,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -765,35 +759,32 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -805,7 +796,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,20 +1108,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="14" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="16" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="16" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="16" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="13" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="16.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1199,11 +1190,11 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="1"/>
@@ -1219,17 +1210,17 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="L3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
@@ -1245,17 +1236,17 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="L4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="1"/>
@@ -1271,17 +1262,17 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="L5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
@@ -1299,15 +1290,15 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="1"/>
@@ -1325,17 +1316,17 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
@@ -1353,17 +1344,17 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1"/>
@@ -1381,17 +1372,17 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="1"/>
@@ -1407,17 +1398,17 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="L10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="2">
         <v>0.5</v>
       </c>
       <c r="C11" s="1"/>
@@ -1433,17 +1424,17 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="L11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="1"/>
@@ -1459,17 +1450,17 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="L12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="1"/>
@@ -1485,17 +1476,17 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="L13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="1"/>
@@ -1513,15 +1504,15 @@
       <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="2">
         <v>0.5</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1539,17 +1530,17 @@
       <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="L15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1567,17 +1558,17 @@
       <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="L16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
       <c r="C17" s="1"/>
@@ -1593,17 +1584,17 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="L17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="1"/>
@@ -1619,17 +1610,17 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="L18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="2">
         <v>0.5</v>
       </c>
       <c r="C19" s="1"/>
@@ -1647,15 +1638,15 @@
       <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="1"/>
@@ -1673,15 +1664,15 @@
       <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="1"/>
@@ -1699,15 +1690,15 @@
       <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1725,17 +1716,17 @@
       <c r="K22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="L22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="2">
         <v>0.5</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1753,17 +1744,17 @@
       <c r="K23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="L23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
@@ -1781,15 +1772,15 @@
       <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="2">
         <v>1</v>
       </c>
       <c r="C25" s="1"/>
@@ -1807,15 +1798,15 @@
       <c r="K25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
@@ -1833,15 +1824,15 @@
       <c r="K26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="2">
         <v>2</v>
       </c>
       <c r="C27" s="1"/>
@@ -1859,15 +1850,15 @@
       <c r="K27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="1"/>
@@ -1885,15 +1876,15 @@
       <c r="K28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1"/>
@@ -1911,9 +1902,9 @@
       <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13" t="s">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1921,7 +1912,7 @@
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="2">
         <v>2</v>
       </c>
       <c r="C30" s="1"/>
@@ -1939,9 +1930,9 @@
       <c r="K30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13" t="s">
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1949,7 +1940,7 @@
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="1"/>
@@ -1967,9 +1958,9 @@
       <c r="K31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1977,7 +1968,7 @@
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="2">
         <v>2</v>
       </c>
       <c r="C32" s="1"/>
@@ -1995,9 +1986,9 @@
       <c r="K32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13" t="s">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2005,7 +1996,7 @@
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="2">
         <v>3</v>
       </c>
       <c r="C33" s="1"/>
@@ -2021,17 +2012,17 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="L33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="1"/>
@@ -2047,17 +2038,17 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="L34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="2">
         <v>3</v>
       </c>
       <c r="C35" s="1"/>
@@ -2073,17 +2064,17 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="L35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="2">
         <v>0.5</v>
       </c>
       <c r="C36" s="1"/>
@@ -2101,17 +2092,17 @@
       <c r="K36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="13"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="2">
         <v>2</v>
       </c>
       <c r="C37" s="1"/>
@@ -2129,17 +2120,17 @@
       <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N37" s="13"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
       <c r="C38" s="1"/>
@@ -2157,15 +2148,15 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="2">
         <v>2</v>
       </c>
       <c r="C39" s="1"/>
@@ -2183,15 +2174,15 @@
       <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="2">
         <v>2</v>
       </c>
       <c r="C40" s="1"/>
@@ -2209,15 +2200,15 @@
       <c r="K40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41" s="1"/>
@@ -2235,9 +2226,9 @@
       <c r="K41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13" t="s">
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2245,7 +2236,7 @@
       <c r="A42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="2">
         <v>0.5</v>
       </c>
       <c r="C42" s="1"/>
@@ -2263,9 +2254,9 @@
       <c r="K42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13" t="s">
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2273,7 +2264,7 @@
       <c r="A43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="1"/>
@@ -2291,9 +2282,9 @@
       <c r="K43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13" t="s">
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2301,7 +2292,7 @@
       <c r="A44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="2">
         <v>2</v>
       </c>
       <c r="C44" s="1"/>
@@ -2319,9 +2310,9 @@
       <c r="K44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13" t="s">
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2329,7 +2320,7 @@
       <c r="A45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="2">
         <v>2</v>
       </c>
       <c r="C45" s="1"/>
@@ -2347,9 +2338,9 @@
       <c r="K45" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13" t="s">
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2357,7 +2348,7 @@
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
       <c r="C46" s="1"/>
@@ -2375,9 +2366,9 @@
       <c r="K46" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13" t="s">
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2385,7 +2376,7 @@
       <c r="A47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="2">
         <v>2</v>
       </c>
       <c r="C47" s="1"/>
@@ -2403,15 +2394,15 @@
       <c r="K47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="2">
         <v>2</v>
       </c>
       <c r="C48" s="1"/>
@@ -2429,9 +2420,9 @@
       <c r="K48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13" t="s">
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2439,7 +2430,7 @@
       <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="2">
         <v>2</v>
       </c>
       <c r="C49" s="1"/>
@@ -2457,15 +2448,15 @@
       <c r="K49" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="2">
         <v>3</v>
       </c>
       <c r="C50" s="1"/>
@@ -2481,17 +2472,17 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
+      <c r="L50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="2">
         <v>0.5</v>
       </c>
       <c r="C51" s="1"/>
@@ -2509,9 +2500,9 @@
       <c r="K51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13" t="s">
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2519,7 +2510,7 @@
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="2">
         <v>2</v>
       </c>
       <c r="C52" s="1"/>
@@ -2537,9 +2528,9 @@
       <c r="K52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13" t="s">
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2547,7 +2538,7 @@
       <c r="A53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="2">
         <v>2</v>
       </c>
       <c r="C53" s="1"/>
@@ -2565,9 +2556,9 @@
       <c r="K53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13" t="s">
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2575,7 +2566,7 @@
       <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="2">
         <v>2</v>
       </c>
       <c r="C54" s="1"/>
@@ -2593,9 +2584,9 @@
       <c r="K54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13" t="s">
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2603,7 +2594,7 @@
       <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" s="1"/>
@@ -2621,9 +2612,9 @@
       <c r="K55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13" t="s">
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2631,7 +2622,7 @@
       <c r="A56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="2">
         <v>3</v>
       </c>
       <c r="C56" s="1"/>
@@ -2643,15 +2634,15 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="2">
         <v>2</v>
       </c>
       <c r="C57" s="1"/>
@@ -2669,9 +2660,9 @@
       <c r="K57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13" t="s">
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2679,7 +2670,7 @@
       <c r="A58" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="2">
         <v>3</v>
       </c>
       <c r="C58" s="1"/>
@@ -2697,9 +2688,9 @@
       <c r="K58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13" t="s">
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2707,7 +2698,7 @@
       <c r="A59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="2">
         <v>2</v>
       </c>
       <c r="C59" s="1"/>
@@ -2725,15 +2716,15 @@
       <c r="K59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="2">
         <v>2</v>
       </c>
       <c r="C60" s="1"/>
@@ -2749,17 +2740,17 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
+      <c r="L60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="2">
         <v>3</v>
       </c>
       <c r="C61" s="1"/>
@@ -2775,17 +2766,17 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
+      <c r="L61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="2">
         <v>3</v>
       </c>
       <c r="C62" s="1"/>
@@ -2803,9 +2794,9 @@
       <c r="K62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13" t="s">
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2813,7 +2804,7 @@
       <c r="A63" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="2">
         <v>1</v>
       </c>
       <c r="C63" s="1"/>
@@ -2831,9 +2822,9 @@
       <c r="K63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13" t="s">
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2841,7 +2832,7 @@
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="2">
         <v>2</v>
       </c>
       <c r="C64" s="1"/>
@@ -2859,9 +2850,9 @@
       <c r="K64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13" t="s">
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2869,7 +2860,7 @@
       <c r="A65" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="2">
         <v>2</v>
       </c>
       <c r="C65" s="1"/>
@@ -2887,9 +2878,9 @@
       <c r="K65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13" t="s">
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2897,7 +2888,7 @@
       <c r="A66" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="2">
         <v>3</v>
       </c>
       <c r="C66" s="1"/>
@@ -2915,9 +2906,9 @@
       <c r="K66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13" t="s">
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2925,7 +2916,7 @@
       <c r="A67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="2">
         <v>0.5</v>
       </c>
       <c r="C67" s="1"/>
@@ -2943,9 +2934,9 @@
       <c r="K67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13" t="s">
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2953,7 +2944,7 @@
       <c r="A68" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="2">
         <v>1</v>
       </c>
       <c r="C68" s="1"/>
@@ -2971,17 +2962,17 @@
       <c r="K68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L68" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
+      <c r="L68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="2">
         <v>0.5</v>
       </c>
       <c r="C69" s="1"/>
@@ -2999,17 +2990,17 @@
       <c r="K69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L69" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
+      <c r="L69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="2">
         <v>2</v>
       </c>
       <c r="C70" s="1"/>
@@ -3027,17 +3018,17 @@
       <c r="K70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L70" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
+      <c r="L70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="12">
+      <c r="B71" s="2">
         <v>0.5</v>
       </c>
       <c r="C71" s="1"/>
@@ -3055,17 +3046,17 @@
       <c r="K71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L71" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
+      <c r="L71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="12">
+      <c r="B72" s="2">
         <v>2</v>
       </c>
       <c r="C72" s="1"/>
@@ -3083,15 +3074,15 @@
       <c r="K72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="2">
         <v>3</v>
       </c>
       <c r="C73" s="1"/>
@@ -3109,15 +3100,15 @@
       <c r="K73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="12">
+      <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="1"/>
@@ -3135,9 +3126,9 @@
       <c r="K74" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13" t="s">
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3145,7 +3136,7 @@
       <c r="A75" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B75" s="12">
+      <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="1"/>
@@ -3163,9 +3154,9 @@
       <c r="K75" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13" t="s">
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3173,7 +3164,7 @@
       <c r="A76" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B76" s="12">
+      <c r="B76" s="2">
         <v>1</v>
       </c>
       <c r="C76" s="1"/>
@@ -3191,9 +3182,9 @@
       <c r="K76" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13" t="s">
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3201,7 +3192,7 @@
       <c r="A77" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="2">
         <v>2</v>
       </c>
       <c r="C77" s="1"/>
@@ -3219,9 +3210,9 @@
       <c r="K77" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13" t="s">
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3229,7 +3220,7 @@
       <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="12">
+      <c r="B78" s="2">
         <v>0.5</v>
       </c>
       <c r="C78" s="1"/>
@@ -3247,9 +3238,9 @@
       <c r="K78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13" t="s">
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3257,7 +3248,7 @@
       <c r="A79" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B79" s="12">
+      <c r="B79" s="2">
         <v>0.5</v>
       </c>
       <c r="C79" s="1"/>
@@ -3275,15 +3266,15 @@
       <c r="K79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="12">
+      <c r="B80" s="2">
         <v>1</v>
       </c>
       <c r="C80" s="1"/>
@@ -3301,15 +3292,15 @@
       <c r="K80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B81" s="12">
+      <c r="B81" s="2">
         <v>0.5</v>
       </c>
       <c r="C81" s="1"/>
@@ -3327,15 +3318,15 @@
       <c r="K81" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="2">
         <v>1</v>
       </c>
       <c r="C82" s="1"/>
@@ -3353,15 +3344,15 @@
       <c r="K82" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B83" s="12">
+      <c r="B83" s="2">
         <v>1</v>
       </c>
       <c r="C83" s="1"/>
@@ -3379,15 +3370,15 @@
       <c r="K83" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B84" s="12">
+      <c r="B84" s="2">
         <v>1</v>
       </c>
       <c r="C84" s="1"/>
@@ -3405,15 +3396,15 @@
       <c r="K84" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="12">
+      <c r="B85" s="2">
         <v>2</v>
       </c>
       <c r="C85" s="1"/>
@@ -3433,9 +3424,9 @@
       <c r="K85" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13" t="s">
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3443,7 +3434,7 @@
       <c r="A86" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="12">
+      <c r="B86" s="2">
         <v>2</v>
       </c>
       <c r="C86" s="1"/>
@@ -3463,9 +3454,9 @@
       <c r="K86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13" t="s">
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3473,7 +3464,7 @@
       <c r="A87" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B87" s="12">
+      <c r="B87" s="2">
         <v>2</v>
       </c>
       <c r="C87" s="1"/>
@@ -3489,17 +3480,17 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
+      <c r="L87" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B88" s="12">
+      <c r="B88" s="2">
         <v>3</v>
       </c>
       <c r="C88" s="1"/>
@@ -3515,17 +3506,17 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
+      <c r="L88" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="2">
         <v>2</v>
       </c>
       <c r="C89" s="1"/>
@@ -3541,17 +3532,17 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
+      <c r="L89" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="2">
         <v>3</v>
       </c>
       <c r="C90" s="1"/>
@@ -3567,17 +3558,17 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
+      <c r="L90" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="2">
         <v>3</v>
       </c>
       <c r="C91" s="1"/>
@@ -3593,17 +3584,17 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
+      <c r="L91" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="12">
+      <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" s="1"/>
@@ -3621,9 +3612,9 @@
       <c r="K92" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13" t="s">
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3631,7 +3622,7 @@
       <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B93" s="12">
+      <c r="B93" s="2">
         <v>0.5</v>
       </c>
       <c r="C93" s="1"/>
@@ -3649,9 +3640,9 @@
       <c r="K93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13" t="s">
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3659,7 +3650,7 @@
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="12">
+      <c r="B94" s="2">
         <v>1</v>
       </c>
       <c r="C94" s="1"/>
@@ -3677,9 +3668,9 @@
       <c r="K94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13" t="s">
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3687,7 +3678,7 @@
       <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B95" s="12">
+      <c r="B95" s="2">
         <v>2</v>
       </c>
       <c r="C95" s="1"/>
@@ -3705,9 +3696,9 @@
       <c r="K95" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="13" t="s">
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3715,7 +3706,7 @@
       <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="12">
+      <c r="B96" s="2">
         <v>0.5</v>
       </c>
       <c r="C96" s="1"/>
@@ -3733,9 +3724,9 @@
       <c r="K96" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="13" t="s">
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3743,7 +3734,7 @@
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="2">
         <v>2</v>
       </c>
       <c r="C97" s="1"/>
@@ -3761,9 +3752,9 @@
       <c r="K97" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L97" s="13"/>
-      <c r="M97" s="13"/>
-      <c r="N97" s="13" t="s">
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3771,7 +3762,7 @@
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="2">
         <v>3</v>
       </c>
       <c r="C98" s="1"/>
@@ -3787,17 +3778,17 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M98" s="13"/>
-      <c r="N98" s="13"/>
+      <c r="L98" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="2">
         <v>2</v>
       </c>
       <c r="C99" s="1"/>
@@ -3815,9 +3806,9 @@
       <c r="K99" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="13" t="s">
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3825,7 +3816,7 @@
       <c r="A100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="2">
         <v>2</v>
       </c>
       <c r="C100" s="1"/>
@@ -3843,9 +3834,9 @@
       <c r="K100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13" t="s">
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3853,7 +3844,7 @@
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B101" s="12">
+      <c r="B101" s="2">
         <v>1</v>
       </c>
       <c r="C101" s="1"/>
@@ -3871,9 +3862,9 @@
       <c r="K101" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13" t="s">
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3881,7 +3872,7 @@
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="12">
+      <c r="B102" s="2">
         <v>2</v>
       </c>
       <c r="C102" s="1"/>
@@ -3899,9 +3890,9 @@
       <c r="K102" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13" t="s">
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3909,7 +3900,7 @@
       <c r="A103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="12">
+      <c r="B103" s="2">
         <v>0.5</v>
       </c>
       <c r="C103" s="1"/>
@@ -3927,9 +3918,9 @@
       <c r="K103" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13" t="s">
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3937,7 +3928,7 @@
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B104" s="12">
+      <c r="B104" s="2">
         <v>0.5</v>
       </c>
       <c r="C104" s="1"/>
@@ -3953,17 +3944,17 @@
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
+      <c r="L104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B105" s="12">
+      <c r="B105" s="2">
         <v>0.5</v>
       </c>
       <c r="C105" s="1"/>
@@ -3979,17 +3970,17 @@
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
+      <c r="L105" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B106" s="12">
+      <c r="B106" s="2">
         <v>1</v>
       </c>
       <c r="C106" s="1"/>
@@ -4007,9 +3998,9 @@
       <c r="K106" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13" t="s">
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4017,7 +4008,7 @@
       <c r="A107" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B107" s="12">
+      <c r="B107" s="2">
         <v>2</v>
       </c>
       <c r="C107" s="1"/>
@@ -4035,9 +4026,9 @@
       <c r="K107" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13" t="s">
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4045,7 +4036,7 @@
       <c r="A108" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B108" s="12">
+      <c r="B108" s="2">
         <v>1</v>
       </c>
       <c r="C108" s="1"/>
@@ -4063,9 +4054,9 @@
       <c r="K108" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13" t="s">
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4073,7 +4064,7 @@
       <c r="A109" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="12">
+      <c r="B109" s="2">
         <v>0.5</v>
       </c>
       <c r="C109" s="1"/>
@@ -4091,15 +4082,15 @@
       <c r="K109" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
       <c r="A110" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="2">
         <v>3</v>
       </c>
       <c r="C110" s="1"/>
@@ -4115,17 +4106,17 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
+      <c r="L110" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
       <c r="A111" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="2">
         <v>2</v>
       </c>
       <c r="C111" s="1"/>
@@ -4143,15 +4134,15 @@
       <c r="K111" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
       <c r="A112" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="2">
         <v>3</v>
       </c>
       <c r="C112" s="1"/>
@@ -4169,15 +4160,15 @@
       <c r="K112" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
       <c r="A113" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="2">
         <v>0.5</v>
       </c>
       <c r="C113" s="1"/>
@@ -4195,9 +4186,9 @@
       <c r="K113" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13" t="s">
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4205,7 +4196,7 @@
       <c r="A114" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="2">
         <v>0.5</v>
       </c>
       <c r="C114" s="1"/>
@@ -4223,9 +4214,9 @@
       <c r="K114" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13" t="s">
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4233,7 +4224,7 @@
       <c r="A115" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="2">
         <v>1</v>
       </c>
       <c r="C115" s="1"/>
@@ -4251,9 +4242,9 @@
       <c r="K115" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13" t="s">
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4261,7 +4252,7 @@
       <c r="A116" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="1"/>
@@ -4279,9 +4270,9 @@
       <c r="K116" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13" t="s">
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4289,7 +4280,7 @@
       <c r="A117" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="2">
         <v>1</v>
       </c>
       <c r="C117" s="1"/>
@@ -4307,9 +4298,9 @@
       <c r="K117" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13" t="s">
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4317,7 +4308,7 @@
       <c r="A118" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B118" s="12">
+      <c r="B118" s="2">
         <v>3</v>
       </c>
       <c r="C118" s="1"/>
@@ -4333,9 +4324,9 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13" t="s">
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4343,7 +4334,7 @@
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B119" s="12">
+      <c r="B119" s="2">
         <v>2</v>
       </c>
       <c r="C119" s="1"/>
@@ -4359,17 +4350,17 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
+      <c r="L119" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
       <c r="A120" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B120" s="12">
+      <c r="B120" s="2">
         <v>3</v>
       </c>
       <c r="C120" s="1"/>
@@ -4387,15 +4378,15 @@
       <c r="K120" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
       <c r="A121" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B121" s="12">
+      <c r="B121" s="2">
         <v>3</v>
       </c>
       <c r="C121" s="1"/>
@@ -4413,15 +4404,15 @@
       <c r="K121" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
       <c r="A122" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B122" s="12">
+      <c r="B122" s="2">
         <v>2</v>
       </c>
       <c r="C122" s="1"/>
@@ -4439,15 +4430,15 @@
       <c r="K122" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L122" s="13"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
       <c r="A123" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="12">
+      <c r="B123" s="2">
         <v>2</v>
       </c>
       <c r="C123" s="1"/>
@@ -4465,15 +4456,15 @@
       <c r="K123" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L123" s="13"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
       <c r="A124" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B124" s="12">
+      <c r="B124" s="2">
         <v>0.5</v>
       </c>
       <c r="C124" s="1"/>
@@ -4491,15 +4482,15 @@
       <c r="K124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="19.5">
       <c r="A125" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B125" s="12">
+      <c r="B125" s="2">
         <v>3</v>
       </c>
       <c r="C125" s="1"/>
@@ -4517,15 +4508,15 @@
       <c r="K125" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L125" s="13"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="12"/>
+      <c r="N125" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="19.5">
       <c r="A126" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B126" s="12">
+      <c r="B126" s="2">
         <v>1</v>
       </c>
       <c r="C126" s="1"/>
@@ -4543,15 +4534,15 @@
       <c r="K126" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="12"/>
+      <c r="N126" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="19.5">
       <c r="A127" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B127" s="12">
+      <c r="B127" s="2">
         <v>3</v>
       </c>
       <c r="C127" s="1"/>
@@ -4569,15 +4560,15 @@
       <c r="K127" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="19.5">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B128" s="12">
+      <c r="B128" s="2">
         <v>1</v>
       </c>
       <c r="C128" s="1"/>
@@ -4593,17 +4584,17 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-      <c r="L128" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
+      <c r="L128" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="19.5">
       <c r="A129" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B129" s="12">
+      <c r="B129" s="2">
         <v>2</v>
       </c>
       <c r="C129" s="1"/>
@@ -4619,17 +4610,17 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
-      <c r="L129" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
+      <c r="L129" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M129" s="12"/>
+      <c r="N129" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="19.5">
       <c r="A130" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B130" s="12">
+      <c r="B130" s="2">
         <v>3</v>
       </c>
       <c r="C130" s="1"/>
@@ -4645,17 +4636,17 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-      <c r="L130" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M130" s="13"/>
-      <c r="N130" s="13"/>
+      <c r="L130" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" s="12"/>
+      <c r="N130" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="19.5">
       <c r="A131" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B131" s="12">
+      <c r="B131" s="2">
         <v>2</v>
       </c>
       <c r="C131" s="1"/>
@@ -4671,17 +4662,17 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-      <c r="L131" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M131" s="13"/>
-      <c r="N131" s="13"/>
+      <c r="L131" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="19.5">
       <c r="A132" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B132" s="12">
+      <c r="B132" s="2">
         <v>0.5</v>
       </c>
       <c r="C132" s="1"/>
@@ -4697,17 +4688,17 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M132" s="13"/>
-      <c r="N132" s="13"/>
+      <c r="L132" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="19.5">
       <c r="A133" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B133" s="12">
+      <c r="B133" s="2">
         <v>2</v>
       </c>
       <c r="C133" s="1"/>
@@ -4723,17 +4714,17 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
+      <c r="L133" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="19.5">
       <c r="A134" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B134" s="12">
+      <c r="B134" s="2">
         <v>3</v>
       </c>
       <c r="C134" s="1"/>
@@ -4749,17 +4740,17 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
-      <c r="L134" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
+      <c r="L134" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M134" s="12"/>
+      <c r="N134" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B135" s="12">
+      <c r="B135" s="2">
         <v>2</v>
       </c>
       <c r="C135" s="1"/>
@@ -4777,17 +4768,17 @@
       <c r="K135" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L135" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M135" s="13"/>
-      <c r="N135" s="13"/>
+      <c r="L135" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="12"/>
+      <c r="N135" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B136" s="12">
+      <c r="B136" s="2">
         <v>3</v>
       </c>
       <c r="C136" s="1"/>
@@ -4805,17 +4796,17 @@
       <c r="K136" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L136" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
+      <c r="L136" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="2">
         <v>0.5</v>
       </c>
       <c r="C137" s="1"/>
@@ -4833,15 +4824,15 @@
       <c r="K137" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B138" s="12">
+      <c r="B138" s="2">
         <v>3</v>
       </c>
       <c r="C138" s="1"/>
@@ -4859,9 +4850,9 @@
       <c r="K138" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L138" s="13"/>
-      <c r="M138" s="13"/>
-      <c r="N138" s="13" t="s">
+      <c r="L138" s="12"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4869,7 +4860,7 @@
       <c r="A139" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B139" s="12">
+      <c r="B139" s="2">
         <v>3</v>
       </c>
       <c r="C139" s="1"/>
@@ -4887,9 +4878,9 @@
       <c r="K139" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L139" s="13"/>
-      <c r="M139" s="13"/>
-      <c r="N139" s="13" t="s">
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4897,7 +4888,7 @@
       <c r="A140" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B140" s="12">
+      <c r="B140" s="2">
         <v>1</v>
       </c>
       <c r="C140" s="1"/>
@@ -4915,9 +4906,9 @@
       <c r="K140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L140" s="13"/>
-      <c r="M140" s="13"/>
-      <c r="N140" s="13" t="s">
+      <c r="L140" s="12"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4925,7 +4916,7 @@
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="12">
+      <c r="B141" s="2">
         <v>1</v>
       </c>
       <c r="C141" s="1"/>
@@ -4943,9 +4934,9 @@
       <c r="K141" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L141" s="13"/>
-      <c r="M141" s="13"/>
-      <c r="N141" s="13" t="s">
+      <c r="L141" s="12"/>
+      <c r="M141" s="12"/>
+      <c r="N141" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4953,7 +4944,7 @@
       <c r="A142" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B142" s="12">
+      <c r="B142" s="2">
         <v>2</v>
       </c>
       <c r="C142" s="1"/>
@@ -4969,17 +4960,17 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
-      <c r="L142" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
+      <c r="L142" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M142" s="12"/>
+      <c r="N142" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B143" s="12">
+      <c r="B143" s="2">
         <v>2</v>
       </c>
       <c r="C143" s="1"/>
@@ -4995,17 +4986,17 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M143" s="13"/>
-      <c r="N143" s="13"/>
+      <c r="L143" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" s="12"/>
+      <c r="N143" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B144" s="12">
+      <c r="B144" s="2">
         <v>0.5</v>
       </c>
       <c r="C144" s="1"/>
@@ -5023,15 +5014,15 @@
       <c r="K144" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L144" s="13"/>
-      <c r="M144" s="13"/>
-      <c r="N144" s="13"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B145" s="12">
+      <c r="B145" s="2">
         <v>3</v>
       </c>
       <c r="C145" s="1"/>
@@ -5049,9 +5040,9 @@
       <c r="K145" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L145" s="13"/>
-      <c r="M145" s="13"/>
-      <c r="N145" s="13" t="s">
+      <c r="L145" s="12"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5059,7 +5050,7 @@
       <c r="A146" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B146" s="2">
         <v>3</v>
       </c>
       <c r="C146" s="1"/>
@@ -5077,9 +5068,9 @@
       <c r="K146" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L146" s="13"/>
-      <c r="M146" s="13"/>
-      <c r="N146" s="13" t="s">
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5087,7 +5078,7 @@
       <c r="A147" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B147" s="12">
+      <c r="B147" s="2">
         <v>1</v>
       </c>
       <c r="C147" s="1"/>
@@ -5105,9 +5096,9 @@
       <c r="K147" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L147" s="13"/>
-      <c r="M147" s="13"/>
-      <c r="N147" s="13" t="s">
+      <c r="L147" s="12"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5115,7 +5106,7 @@
       <c r="A148" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B148" s="12">
+      <c r="B148" s="2">
         <v>1</v>
       </c>
       <c r="C148" s="1"/>
@@ -5133,9 +5124,9 @@
       <c r="K148" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L148" s="13"/>
-      <c r="M148" s="13"/>
-      <c r="N148" s="13" t="s">
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5143,7 +5134,7 @@
       <c r="A149" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B149" s="12">
+      <c r="B149" s="2">
         <v>1</v>
       </c>
       <c r="C149" s="1"/>
@@ -5161,9 +5152,9 @@
       <c r="K149" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L149" s="13"/>
-      <c r="M149" s="13"/>
-      <c r="N149" s="13" t="s">
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5171,7 +5162,7 @@
       <c r="A150" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B150" s="12">
+      <c r="B150" s="2">
         <v>3</v>
       </c>
       <c r="C150" s="1"/>
@@ -5187,17 +5178,17 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M150" s="13"/>
-      <c r="N150" s="13"/>
+      <c r="L150" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" s="12"/>
+      <c r="N150" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B151" s="12">
+      <c r="B151" s="2">
         <v>0</v>
       </c>
       <c r="C151" s="1"/>
@@ -5209,15 +5200,15 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-      <c r="L151" s="13"/>
-      <c r="M151" s="13"/>
-      <c r="N151" s="13"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B152" s="12">
+      <c r="B152" s="2">
         <v>0</v>
       </c>
       <c r="C152" s="1"/>
@@ -5229,15 +5220,15 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B153" s="12">
+      <c r="B153" s="2">
         <v>2</v>
       </c>
       <c r="C153" s="1"/>
@@ -5255,9 +5246,9 @@
       <c r="K153" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L153" s="13"/>
-      <c r="M153" s="13"/>
-      <c r="N153" s="13" t="s">
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5265,7 +5256,7 @@
       <c r="A154" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B154" s="12">
+      <c r="B154" s="2">
         <v>2</v>
       </c>
       <c r="C154" s="1"/>
@@ -5283,9 +5274,9 @@
       <c r="K154" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="13" t="s">
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5293,7 +5284,7 @@
       <c r="A155" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B155" s="12">
+      <c r="B155" s="2">
         <v>0.5</v>
       </c>
       <c r="C155" s="1"/>
@@ -5311,9 +5302,9 @@
       <c r="K155" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L155" s="13"/>
-      <c r="M155" s="13"/>
-      <c r="N155" s="13" t="s">
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5321,7 +5312,7 @@
       <c r="A156" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B156" s="12">
+      <c r="B156" s="2">
         <v>3</v>
       </c>
       <c r="C156" s="1"/>
@@ -5339,9 +5330,9 @@
       <c r="K156" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13" t="s">
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5349,7 +5340,7 @@
       <c r="A157" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B157" s="12">
+      <c r="B157" s="2">
         <v>1</v>
       </c>
       <c r="C157" s="1"/>
@@ -5367,9 +5358,9 @@
       <c r="K157" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="13" t="s">
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5377,7 +5368,7 @@
       <c r="A158" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B158" s="12">
+      <c r="B158" s="2">
         <v>2</v>
       </c>
       <c r="C158" s="1"/>
@@ -5393,17 +5384,17 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
+      <c r="L158" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M158" s="12"/>
+      <c r="N158" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B159" s="12">
+      <c r="B159" s="2">
         <v>2</v>
       </c>
       <c r="C159" s="1"/>
@@ -5419,9 +5410,9 @@
       </c>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="13"/>
-      <c r="M159" s="13"/>
-      <c r="N159" s="13" t="s">
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5429,7 +5420,7 @@
       <c r="A160" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B160" s="12">
+      <c r="B160" s="2">
         <v>2</v>
       </c>
       <c r="C160" s="1"/>
@@ -5445,9 +5436,9 @@
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="13" t="s">
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5455,7 +5446,7 @@
       <c r="A161" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B161" s="12">
+      <c r="B161" s="2">
         <v>1</v>
       </c>
       <c r="C161" s="1"/>
@@ -5471,9 +5462,9 @@
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
-      <c r="L161" s="13"/>
-      <c r="M161" s="13"/>
-      <c r="N161" s="13" t="s">
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5481,7 +5472,7 @@
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B162" s="12">
+      <c r="B162" s="2">
         <v>2</v>
       </c>
       <c r="C162" s="1"/>
@@ -5497,9 +5488,9 @@
       </c>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
-      <c r="L162" s="13"/>
-      <c r="M162" s="13"/>
-      <c r="N162" s="13" t="s">
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5507,7 +5498,7 @@
       <c r="A163" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B163" s="12">
+      <c r="B163" s="2">
         <v>3</v>
       </c>
       <c r="C163" s="1"/>
@@ -5525,9 +5516,9 @@
       <c r="K163" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L163" s="13"/>
-      <c r="M163" s="13"/>
-      <c r="N163" s="13" t="s">
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5535,7 +5526,7 @@
       <c r="A164" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B164" s="12">
+      <c r="B164" s="2">
         <v>0.5</v>
       </c>
       <c r="C164" s="1"/>
@@ -5553,9 +5544,9 @@
       <c r="K164" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L164" s="13"/>
-      <c r="M164" s="13"/>
-      <c r="N164" s="13" t="s">
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5563,7 +5554,7 @@
       <c r="A165" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B165" s="12">
+      <c r="B165" s="2">
         <v>2</v>
       </c>
       <c r="C165" s="1"/>
@@ -5581,9 +5572,9 @@
       <c r="K165" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L165" s="13"/>
-      <c r="M165" s="13"/>
-      <c r="N165" s="13" t="s">
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5591,7 +5582,7 @@
       <c r="A166" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B166" s="2">
         <v>3</v>
       </c>
       <c r="C166" s="1"/>
@@ -5609,9 +5600,9 @@
       <c r="K166" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L166" s="13"/>
-      <c r="M166" s="13"/>
-      <c r="N166" s="13" t="s">
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5619,7 +5610,7 @@
       <c r="A167" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B167" s="12">
+      <c r="B167" s="2">
         <v>3</v>
       </c>
       <c r="C167" s="1"/>
@@ -5637,9 +5628,9 @@
       <c r="K167" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L167" s="13"/>
-      <c r="M167" s="13"/>
-      <c r="N167" s="13" t="s">
+      <c r="L167" s="12"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5647,7 +5638,7 @@
       <c r="A168" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B168" s="12">
+      <c r="B168" s="2">
         <v>2</v>
       </c>
       <c r="C168" s="1"/>
@@ -5665,9 +5656,9 @@
       <c r="K168" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L168" s="13"/>
-      <c r="M168" s="13"/>
-      <c r="N168" s="13" t="s">
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5675,7 +5666,7 @@
       <c r="A169" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B169" s="12">
+      <c r="B169" s="2">
         <v>2</v>
       </c>
       <c r="C169" s="1"/>
@@ -5693,9 +5684,9 @@
       <c r="K169" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L169" s="13"/>
-      <c r="M169" s="13"/>
-      <c r="N169" s="13" t="s">
+      <c r="L169" s="12"/>
+      <c r="M169" s="12"/>
+      <c r="N169" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5703,7 +5694,7 @@
       <c r="A170" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B170" s="12">
+      <c r="B170" s="2">
         <v>2</v>
       </c>
       <c r="C170" s="1"/>
@@ -5721,9 +5712,9 @@
       <c r="K170" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L170" s="13"/>
-      <c r="M170" s="13"/>
-      <c r="N170" s="13" t="s">
+      <c r="L170" s="12"/>
+      <c r="M170" s="12"/>
+      <c r="N170" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5731,7 +5722,7 @@
       <c r="A171" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B171" s="12">
+      <c r="B171" s="2">
         <v>0.5</v>
       </c>
       <c r="C171" s="1"/>
@@ -5749,15 +5740,15 @@
       <c r="K171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L171" s="13"/>
-      <c r="M171" s="13"/>
-      <c r="N171" s="13"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B172" s="12">
+      <c r="B172" s="2">
         <v>2</v>
       </c>
       <c r="C172" s="1"/>
@@ -5775,15 +5766,15 @@
       <c r="K172" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L172" s="13"/>
-      <c r="M172" s="13"/>
-      <c r="N172" s="13"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B173" s="12">
+      <c r="B173" s="2">
         <v>2</v>
       </c>
       <c r="C173" s="1"/>
@@ -5801,15 +5792,15 @@
       <c r="K173" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L173" s="13"/>
-      <c r="M173" s="13"/>
-      <c r="N173" s="13"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B174" s="12">
+      <c r="B174" s="2">
         <v>2</v>
       </c>
       <c r="C174" s="1"/>
@@ -5827,15 +5818,15 @@
       <c r="K174" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L174" s="13"/>
-      <c r="M174" s="13"/>
-      <c r="N174" s="13"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B175" s="12">
+      <c r="B175" s="2">
         <v>2</v>
       </c>
       <c r="C175" s="1"/>
@@ -5853,15 +5844,15 @@
       <c r="K175" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L175" s="13"/>
-      <c r="M175" s="13"/>
-      <c r="N175" s="13"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B176" s="12">
+      <c r="B176" s="2">
         <v>1</v>
       </c>
       <c r="C176" s="1"/>
@@ -5879,15 +5870,15 @@
       <c r="K176" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L176" s="13"/>
-      <c r="M176" s="13"/>
-      <c r="N176" s="13"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B177" s="12">
+      <c r="B177" s="2">
         <v>0.5</v>
       </c>
       <c r="C177" s="1"/>
@@ -5905,15 +5896,15 @@
       <c r="K177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L177" s="13"/>
-      <c r="M177" s="13"/>
-      <c r="N177" s="13"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B178" s="12">
+      <c r="B178" s="2">
         <v>0.5</v>
       </c>
       <c r="C178" s="1"/>
@@ -5931,15 +5922,15 @@
       <c r="K178" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L178" s="13"/>
-      <c r="M178" s="13"/>
-      <c r="N178" s="13"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B179" s="12">
+      <c r="B179" s="2">
         <v>0.5</v>
       </c>
       <c r="C179" s="1"/>
@@ -5957,15 +5948,15 @@
       <c r="K179" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L179" s="13"/>
-      <c r="M179" s="13"/>
-      <c r="N179" s="13"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B180" s="12">
+      <c r="B180" s="2">
         <v>0.5</v>
       </c>
       <c r="C180" s="1"/>
@@ -5983,15 +5974,15 @@
       <c r="K180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L180" s="13"/>
-      <c r="M180" s="13"/>
-      <c r="N180" s="13"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B181" s="12">
+      <c r="B181" s="2">
         <v>1</v>
       </c>
       <c r="C181" s="1"/>
@@ -6009,9 +6000,9 @@
       <c r="K181" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L181" s="13"/>
-      <c r="M181" s="13"/>
-      <c r="N181" s="13" t="s">
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6019,7 +6010,7 @@
       <c r="A182" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B182" s="12">
+      <c r="B182" s="2">
         <v>0.5</v>
       </c>
       <c r="C182" s="1"/>
@@ -6037,9 +6028,9 @@
       <c r="K182" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L182" s="13"/>
-      <c r="M182" s="13"/>
-      <c r="N182" s="13" t="s">
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6047,7 +6038,7 @@
       <c r="A183" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B183" s="12">
+      <c r="B183" s="2">
         <v>2</v>
       </c>
       <c r="C183" s="1"/>
@@ -6065,9 +6056,9 @@
       <c r="K183" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L183" s="13"/>
-      <c r="M183" s="13"/>
-      <c r="N183" s="13" t="s">
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6075,7 +6066,7 @@
       <c r="A184" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B184" s="12">
+      <c r="B184" s="2">
         <v>0.5</v>
       </c>
       <c r="C184" s="1"/>
@@ -6093,9 +6084,9 @@
       <c r="K184" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L184" s="13"/>
-      <c r="M184" s="13"/>
-      <c r="N184" s="13" t="s">
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6103,7 +6094,7 @@
       <c r="A185" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B185" s="12">
+      <c r="B185" s="2">
         <v>0.5</v>
       </c>
       <c r="C185" s="1"/>
@@ -6121,15 +6112,15 @@
       <c r="K185" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L185" s="13"/>
-      <c r="M185" s="13"/>
-      <c r="N185" s="13"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B186" s="12">
+      <c r="B186" s="2">
         <v>2</v>
       </c>
       <c r="C186" s="1"/>
@@ -6147,15 +6138,15 @@
       <c r="K186" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L186" s="13"/>
-      <c r="M186" s="13"/>
-      <c r="N186" s="13"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B187" s="12">
+      <c r="B187" s="2">
         <v>0.5</v>
       </c>
       <c r="C187" s="1"/>
@@ -6173,15 +6164,15 @@
       <c r="K187" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L187" s="13"/>
-      <c r="M187" s="13"/>
-      <c r="N187" s="13"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B188" s="12">
+      <c r="B188" s="2">
         <v>2</v>
       </c>
       <c r="C188" s="1"/>
@@ -6199,15 +6190,15 @@
       <c r="K188" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L188" s="13"/>
-      <c r="M188" s="13"/>
-      <c r="N188" s="13"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B189" s="12">
+      <c r="B189" s="2">
         <v>3</v>
       </c>
       <c r="C189" s="1"/>
@@ -6225,9 +6216,9 @@
       <c r="K189" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L189" s="13"/>
-      <c r="M189" s="13"/>
-      <c r="N189" s="13" t="s">
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6235,7 +6226,7 @@
       <c r="A190" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B190" s="12">
+      <c r="B190" s="2">
         <v>0.5</v>
       </c>
       <c r="C190" s="1"/>
@@ -6253,9 +6244,9 @@
       <c r="K190" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L190" s="13"/>
-      <c r="M190" s="13"/>
-      <c r="N190" s="13" t="s">
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6263,7 +6254,7 @@
       <c r="A191" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B191" s="12">
+      <c r="B191" s="2">
         <v>0.5</v>
       </c>
       <c r="C191" s="1"/>
@@ -6281,9 +6272,9 @@
       <c r="K191" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L191" s="13"/>
-      <c r="M191" s="13"/>
-      <c r="N191" s="13" t="s">
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6291,7 +6282,7 @@
       <c r="A192" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B192" s="12">
+      <c r="B192" s="2">
         <v>0.5</v>
       </c>
       <c r="C192" s="1"/>
@@ -6309,9 +6300,9 @@
       <c r="K192" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L192" s="13"/>
-      <c r="M192" s="13"/>
-      <c r="N192" s="13" t="s">
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6319,7 +6310,7 @@
       <c r="A193" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B193" s="12">
+      <c r="B193" s="2">
         <v>0.5</v>
       </c>
       <c r="C193" s="1"/>
@@ -6337,15 +6328,15 @@
       <c r="K193" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L193" s="13"/>
-      <c r="M193" s="13"/>
-      <c r="N193" s="13"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B194" s="12">
+      <c r="B194" s="2">
         <v>3</v>
       </c>
       <c r="C194" s="1"/>
@@ -6361,17 +6352,17 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
-      <c r="L194" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M194" s="13"/>
-      <c r="N194" s="13"/>
+      <c r="L194" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B195" s="12">
+      <c r="B195" s="2">
         <v>2</v>
       </c>
       <c r="C195" s="1"/>
@@ -6389,9 +6380,9 @@
       <c r="K195" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L195" s="13"/>
-      <c r="M195" s="13"/>
-      <c r="N195" s="13" t="s">
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6399,7 +6390,7 @@
       <c r="A196" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B196" s="12">
+      <c r="B196" s="2">
         <v>2</v>
       </c>
       <c r="C196" s="1"/>
@@ -6417,9 +6408,9 @@
       <c r="K196" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L196" s="13"/>
-      <c r="M196" s="13"/>
-      <c r="N196" s="13" t="s">
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6427,7 +6418,7 @@
       <c r="A197" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B197" s="12">
+      <c r="B197" s="2">
         <v>2</v>
       </c>
       <c r="C197" s="1"/>
@@ -6445,9 +6436,9 @@
       <c r="K197" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L197" s="13"/>
-      <c r="M197" s="13"/>
-      <c r="N197" s="13" t="s">
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6455,7 +6446,7 @@
       <c r="A198" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B198" s="12">
+      <c r="B198" s="2">
         <v>3</v>
       </c>
       <c r="C198" s="1"/>
@@ -6473,9 +6464,9 @@
       <c r="K198" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L198" s="13"/>
-      <c r="M198" s="13"/>
-      <c r="N198" s="13" t="s">
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6483,7 +6474,7 @@
       <c r="A199" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B199" s="12">
+      <c r="B199" s="2">
         <v>1</v>
       </c>
       <c r="C199" s="1"/>
@@ -6501,9 +6492,9 @@
       <c r="K199" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L199" s="13"/>
-      <c r="M199" s="13"/>
-      <c r="N199" s="13" t="s">
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6511,7 +6502,7 @@
       <c r="A200" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B200" s="12">
+      <c r="B200" s="2">
         <v>2</v>
       </c>
       <c r="C200" s="1"/>
@@ -6527,17 +6518,17 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
-      <c r="L200" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M200" s="13"/>
-      <c r="N200" s="13"/>
+      <c r="L200" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M200" s="12"/>
+      <c r="N200" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B201" s="12">
+      <c r="B201" s="2">
         <v>3</v>
       </c>
       <c r="C201" s="1"/>
@@ -6553,11 +6544,11 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
-      <c r="L201" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M201" s="13"/>
-      <c r="N201" s="13"/>
+      <c r="L201" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M201" s="12"/>
+      <c r="N201" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Train_scripts/Excels/IF score.xlsx
+++ b/Train_scripts/Excels/IF score.xlsx
@@ -1854,7 +1854,7 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
